--- a/用例数据/深港/红股/腾讯分京东/测试结果.xlsx
+++ b/用例数据/深港/红股/腾讯分京东/测试结果.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\深港\红股\腾讯分京东\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="295">
   <si>
     <t>EXCHID</t>
   </si>
@@ -318,9 +323,6 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>1.000000</t>
-  </si>
-  <si>
     <t>000011725200</t>
   </si>
   <si>
@@ -901,19 +903,16 @@
   </si>
   <si>
     <t>20220707000000</t>
+  </si>
+  <si>
+    <t>0.902400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,352 +921,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1275,311 +943,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1866,100 +1248,99 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:CH23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CH19"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
-    <col min="2" max="3" width="14.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="14.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="6.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="20.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444" customWidth="1"/>
-    <col min="14" max="14" width="10.7777777777778" customWidth="1"/>
-    <col min="15" max="15" width="11.8888888888889" customWidth="1"/>
-    <col min="16" max="17" width="15.2222222222222" customWidth="1"/>
-    <col min="18" max="18" width="14.1111111111111" customWidth="1"/>
-    <col min="19" max="19" width="17.5555555555556" customWidth="1"/>
-    <col min="20" max="20" width="14.1111111111111" customWidth="1"/>
-    <col min="21" max="21" width="16.4444444444444" customWidth="1"/>
-    <col min="22" max="22" width="11.8888888888889" customWidth="1"/>
-    <col min="23" max="23" width="8.66666666666667" customWidth="1"/>
-    <col min="24" max="24" width="10.7777777777778" customWidth="1"/>
-    <col min="25" max="25" width="7.66666666666667" customWidth="1"/>
-    <col min="26" max="26" width="17.5555555555556" customWidth="1"/>
-    <col min="27" max="27" width="9.66666666666667" customWidth="1"/>
-    <col min="28" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="11.8888888888889" customWidth="1"/>
-    <col min="31" max="31" width="15.2222222222222" customWidth="1"/>
-    <col min="32" max="32" width="10.7777777777778" customWidth="1"/>
-    <col min="33" max="33" width="16.4444444444444" customWidth="1"/>
-    <col min="34" max="34" width="15.2222222222222" customWidth="1"/>
-    <col min="35" max="35" width="22" customWidth="1"/>
-    <col min="36" max="36" width="11.8888888888889" customWidth="1"/>
-    <col min="37" max="37" width="20.8888888888889" customWidth="1"/>
-    <col min="38" max="38" width="24.2222222222222" customWidth="1"/>
-    <col min="39" max="39" width="23.1111111111111" customWidth="1"/>
-    <col min="40" max="41" width="13" customWidth="1"/>
-    <col min="42" max="42" width="14.1111111111111" customWidth="1"/>
-    <col min="43" max="43" width="13" customWidth="1"/>
-    <col min="44" max="45" width="14.1111111111111" customWidth="1"/>
-    <col min="46" max="47" width="15.2222222222222" customWidth="1"/>
-    <col min="48" max="49" width="13" customWidth="1"/>
-    <col min="50" max="50" width="14.1111111111111" customWidth="1"/>
-    <col min="51" max="51" width="16.4444444444444" customWidth="1"/>
-    <col min="52" max="52" width="23.1111111111111" customWidth="1"/>
-    <col min="53" max="53" width="19.7777777777778" customWidth="1"/>
-    <col min="54" max="54" width="23.1111111111111" customWidth="1"/>
-    <col min="55" max="55" width="15.2222222222222" customWidth="1"/>
-    <col min="56" max="56" width="18.6666666666667" customWidth="1"/>
-    <col min="57" max="57" width="17.5555555555556" customWidth="1"/>
-    <col min="58" max="59" width="16.4444444444444" customWidth="1"/>
-    <col min="60" max="61" width="17.5555555555556" customWidth="1"/>
-    <col min="62" max="62" width="16.4444444444444" customWidth="1"/>
-    <col min="63" max="63" width="17.5555555555556" customWidth="1"/>
-    <col min="64" max="64" width="18.6666666666667" customWidth="1"/>
-    <col min="65" max="65" width="25.4444444444444" customWidth="1"/>
-    <col min="66" max="66" width="27.6666666666667" customWidth="1"/>
-    <col min="67" max="67" width="20.8888888888889" customWidth="1"/>
-    <col min="68" max="68" width="16.4444444444444" customWidth="1"/>
-    <col min="69" max="69" width="23.1111111111111" customWidth="1"/>
-    <col min="70" max="70" width="9.66666666666667" customWidth="1"/>
-    <col min="71" max="71" width="23.1111111111111" customWidth="1"/>
-    <col min="72" max="72" width="18.6666666666667" customWidth="1"/>
-    <col min="73" max="73" width="24.2222222222222" customWidth="1"/>
-    <col min="74" max="74" width="19.7777777777778" customWidth="1"/>
-    <col min="75" max="75" width="14.1111111111111" customWidth="1"/>
-    <col min="76" max="76" width="17.5555555555556" customWidth="1"/>
-    <col min="77" max="77" width="15.2222222222222" customWidth="1"/>
-    <col min="78" max="78" width="16.4444444444444" customWidth="1"/>
-    <col min="79" max="79" width="18.6666666666667" customWidth="1"/>
-    <col min="80" max="80" width="19.7777777777778" customWidth="1"/>
-    <col min="81" max="81" width="26.5555555555556" customWidth="1"/>
-    <col min="82" max="82" width="14.1111111111111" customWidth="1"/>
-    <col min="83" max="83" width="13" customWidth="1"/>
-    <col min="84" max="84" width="22" customWidth="1"/>
-    <col min="85" max="85" width="17.5555555555556" customWidth="1"/>
-    <col min="86" max="86" width="20.8888888888889" customWidth="1"/>
+    <col min="1" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="15" max="16" width="15.21875" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="17.5546875" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" customWidth="1"/>
+    <col min="21" max="21" width="11.88671875" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" customWidth="1"/>
+    <col min="23" max="23" width="10.77734375" customWidth="1"/>
+    <col min="24" max="24" width="7.6640625" customWidth="1"/>
+    <col min="25" max="25" width="17.5546875" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" customWidth="1"/>
+    <col min="27" max="28" width="13" customWidth="1"/>
+    <col min="29" max="29" width="11.88671875" customWidth="1"/>
+    <col min="30" max="30" width="15.21875" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" customWidth="1"/>
+    <col min="32" max="32" width="16.44140625" customWidth="1"/>
+    <col min="33" max="33" width="15.21875" customWidth="1"/>
+    <col min="34" max="34" width="22" customWidth="1"/>
+    <col min="35" max="35" width="11.88671875" customWidth="1"/>
+    <col min="36" max="36" width="20.88671875" customWidth="1"/>
+    <col min="37" max="37" width="24.21875" customWidth="1"/>
+    <col min="38" max="38" width="23.109375" customWidth="1"/>
+    <col min="39" max="40" width="13" customWidth="1"/>
+    <col min="41" max="41" width="14.109375" customWidth="1"/>
+    <col min="42" max="42" width="13" customWidth="1"/>
+    <col min="43" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="46" width="15.21875" customWidth="1"/>
+    <col min="47" max="48" width="13" customWidth="1"/>
+    <col min="49" max="49" width="14.109375" customWidth="1"/>
+    <col min="50" max="50" width="16.44140625" customWidth="1"/>
+    <col min="51" max="51" width="23.109375" customWidth="1"/>
+    <col min="52" max="52" width="19.77734375" customWidth="1"/>
+    <col min="53" max="53" width="23.109375" customWidth="1"/>
+    <col min="54" max="54" width="15.21875" customWidth="1"/>
+    <col min="55" max="55" width="18.6640625" customWidth="1"/>
+    <col min="56" max="56" width="17.5546875" customWidth="1"/>
+    <col min="57" max="58" width="16.44140625" customWidth="1"/>
+    <col min="59" max="60" width="17.5546875" customWidth="1"/>
+    <col min="61" max="61" width="16.44140625" customWidth="1"/>
+    <col min="62" max="62" width="17.5546875" customWidth="1"/>
+    <col min="63" max="63" width="18.6640625" customWidth="1"/>
+    <col min="64" max="64" width="25.44140625" customWidth="1"/>
+    <col min="65" max="65" width="27.6640625" customWidth="1"/>
+    <col min="66" max="66" width="20.88671875" customWidth="1"/>
+    <col min="67" max="67" width="16.44140625" customWidth="1"/>
+    <col min="68" max="68" width="23.109375" customWidth="1"/>
+    <col min="69" max="69" width="9.6640625" customWidth="1"/>
+    <col min="70" max="70" width="23.109375" customWidth="1"/>
+    <col min="71" max="71" width="18.6640625" customWidth="1"/>
+    <col min="72" max="72" width="24.21875" customWidth="1"/>
+    <col min="73" max="73" width="19.77734375" customWidth="1"/>
+    <col min="74" max="74" width="14.109375" customWidth="1"/>
+    <col min="75" max="75" width="17.5546875" customWidth="1"/>
+    <col min="76" max="76" width="15.21875" customWidth="1"/>
+    <col min="77" max="77" width="16.44140625" customWidth="1"/>
+    <col min="78" max="78" width="18.6640625" customWidth="1"/>
+    <col min="79" max="79" width="19.77734375" customWidth="1"/>
+    <col min="80" max="80" width="26.5546875" customWidth="1"/>
+    <col min="81" max="81" width="14.109375" customWidth="1"/>
+    <col min="82" max="82" width="13" customWidth="1"/>
+    <col min="83" max="83" width="22" customWidth="1"/>
+    <col min="84" max="84" width="17.5546875" customWidth="1"/>
+    <col min="85" max="85" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:86">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2219,7 +1600,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:86">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -2248,7 +1629,7 @@
         <v>91</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>92</v>
@@ -2343,6 +1724,9 @@
       <c r="AO2" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="AP2" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="AQ2" s="1" t="s">
         <v>91</v>
       </c>
@@ -2425,7 +1809,7 @@
         <v>94</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>100</v>
+        <v>294</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>91</v>
@@ -2476,24 +1860,24 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:86">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>90</v>
@@ -2505,7 +1889,7 @@
         <v>91</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>92</v>
@@ -2517,10 +1901,10 @@
         <v>94</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>91</v>
@@ -2600,6 +1984,9 @@
       <c r="AO3" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="AP3" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="AQ3" s="1" t="s">
         <v>91</v>
       </c>
@@ -2682,7 +2069,7 @@
         <v>94</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>100</v>
+        <v>294</v>
       </c>
       <c r="BS3" s="1" t="s">
         <v>91</v>
@@ -2733,208 +2120,203 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="20" s="1" customFormat="1"/>
-    <row r="21" s="1" customFormat="1"/>
-    <row r="22" s="1" customFormat="1"/>
-    <row r="23" s="1" customFormat="1"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BY1" workbookViewId="0">
+    <sheetView topLeftCell="BY1" workbookViewId="0">
       <selection activeCell="CI10" sqref="CI10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="4" max="5" width="16.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="7.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="7.66666666666667" customWidth="1"/>
-    <col min="10" max="11" width="14.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="6.66666666666667" customWidth="1"/>
-    <col min="15" max="15" width="9.66666666666667" customWidth="1"/>
-    <col min="16" max="16" width="8.66666666666667" customWidth="1"/>
-    <col min="17" max="17" width="10.7777777777778" customWidth="1"/>
-    <col min="18" max="18" width="8.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="7.66666666666667" customWidth="1"/>
-    <col min="21" max="21" width="10.7777777777778" customWidth="1"/>
-    <col min="22" max="22" width="9.66666666666667" customWidth="1"/>
-    <col min="23" max="23" width="11.8888888888889" customWidth="1"/>
-    <col min="24" max="24" width="16.4444444444444" customWidth="1"/>
-    <col min="25" max="25" width="14.1111111111111" customWidth="1"/>
-    <col min="26" max="26" width="9.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="8.66666666666667" customWidth="1"/>
-    <col min="29" max="29" width="9.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="23.1111111111111" customWidth="1"/>
-    <col min="31" max="31" width="10.7777777777778" customWidth="1"/>
-    <col min="32" max="32" width="15.2222222222222" customWidth="1"/>
-    <col min="33" max="34" width="14.1111111111111" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" customWidth="1"/>
+    <col min="30" max="30" width="23.109375" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" customWidth="1"/>
+    <col min="32" max="32" width="15.21875" customWidth="1"/>
+    <col min="33" max="34" width="14.109375" customWidth="1"/>
     <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.66666666666667" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="14.1111111111111" customWidth="1"/>
-    <col min="41" max="41" width="11.8888888888889" customWidth="1"/>
-    <col min="42" max="43" width="9.66666666666667" customWidth="1"/>
-    <col min="44" max="45" width="14.1111111111111" customWidth="1"/>
-    <col min="46" max="46" width="9.66666666666667" customWidth="1"/>
+    <col min="39" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="14.109375" customWidth="1"/>
+    <col min="41" max="41" width="11.88671875" customWidth="1"/>
+    <col min="42" max="43" width="9.6640625" customWidth="1"/>
+    <col min="44" max="45" width="14.109375" customWidth="1"/>
+    <col min="46" max="46" width="9.6640625" customWidth="1"/>
     <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.1111111111111" customWidth="1"/>
-    <col min="49" max="49" width="8.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="17.5555555555556" customWidth="1"/>
-    <col min="51" max="51" width="11.8888888888889" customWidth="1"/>
-    <col min="52" max="52" width="8.66666666666667" customWidth="1"/>
-    <col min="53" max="53" width="9.66666666666667" customWidth="1"/>
+    <col min="48" max="48" width="14.109375" customWidth="1"/>
+    <col min="49" max="49" width="8.6640625" customWidth="1"/>
+    <col min="50" max="50" width="17.5546875" customWidth="1"/>
+    <col min="51" max="51" width="11.88671875" customWidth="1"/>
+    <col min="52" max="52" width="8.6640625" customWidth="1"/>
+    <col min="53" max="53" width="9.6640625" customWidth="1"/>
     <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.4444444444444" customWidth="1"/>
+    <col min="55" max="55" width="16.44140625" customWidth="1"/>
     <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.4444444444444" customWidth="1"/>
-    <col min="59" max="59" width="15.2222222222222" customWidth="1"/>
-    <col min="60" max="60" width="50.1111111111111" customWidth="1"/>
-    <col min="61" max="61" width="17.5555555555556" customWidth="1"/>
-    <col min="62" max="62" width="14.1111111111111" customWidth="1"/>
-    <col min="63" max="63" width="11.8888888888889" customWidth="1"/>
-    <col min="64" max="64" width="8.66666666666667" customWidth="1"/>
-    <col min="65" max="65" width="14.1111111111111" customWidth="1"/>
-    <col min="66" max="66" width="9.66666666666667" customWidth="1"/>
-    <col min="67" max="67" width="17.5555555555556" customWidth="1"/>
-    <col min="68" max="68" width="10.7777777777778" customWidth="1"/>
-    <col min="69" max="69" width="11.8888888888889" customWidth="1"/>
+    <col min="58" max="58" width="16.44140625" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" customWidth="1"/>
+    <col min="60" max="60" width="50.109375" customWidth="1"/>
+    <col min="61" max="61" width="17.5546875" customWidth="1"/>
+    <col min="62" max="62" width="14.109375" customWidth="1"/>
+    <col min="63" max="63" width="11.88671875" customWidth="1"/>
+    <col min="64" max="64" width="8.6640625" customWidth="1"/>
+    <col min="65" max="65" width="14.109375" customWidth="1"/>
+    <col min="66" max="66" width="9.6640625" customWidth="1"/>
+    <col min="67" max="67" width="17.5546875" customWidth="1"/>
+    <col min="68" max="68" width="10.77734375" customWidth="1"/>
+    <col min="69" max="69" width="11.88671875" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.8888888888889" customWidth="1"/>
-    <col min="72" max="72" width="15.2222222222222" customWidth="1"/>
-    <col min="73" max="73" width="11.8888888888889" customWidth="1"/>
+    <col min="71" max="71" width="11.88671875" customWidth="1"/>
+    <col min="72" max="72" width="15.21875" customWidth="1"/>
+    <col min="73" max="73" width="11.88671875" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.5555555555556" customWidth="1"/>
-    <col min="76" max="76" width="20.8888888888889" customWidth="1"/>
-    <col min="77" max="77" width="16.4444444444444" customWidth="1"/>
+    <col min="75" max="75" width="17.5546875" customWidth="1"/>
+    <col min="76" max="76" width="20.88671875" customWidth="1"/>
+    <col min="77" max="77" width="16.44140625" customWidth="1"/>
     <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.8888888888889" customWidth="1"/>
-    <col min="80" max="80" width="10.7777777777778" customWidth="1"/>
-    <col min="81" max="81" width="11.8888888888889" customWidth="1"/>
-    <col min="82" max="83" width="7.66666666666667" customWidth="1"/>
-    <col min="84" max="85" width="17.5555555555556" customWidth="1"/>
-    <col min="86" max="86" width="16.4444444444444" customWidth="1"/>
-    <col min="87" max="87" width="11.8888888888889" customWidth="1"/>
-    <col min="88" max="88" width="14.1111111111111" customWidth="1"/>
-    <col min="89" max="89" width="16.4444444444444" customWidth="1"/>
-    <col min="90" max="90" width="10.7777777777778" customWidth="1"/>
-    <col min="91" max="91" width="11.8888888888889" customWidth="1"/>
-    <col min="92" max="92" width="19.7777777777778" customWidth="1"/>
-    <col min="93" max="93" width="16.4444444444444" customWidth="1"/>
-    <col min="94" max="94" width="23.1111111111111" customWidth="1"/>
-    <col min="95" max="95" width="7.66666666666667" customWidth="1"/>
-    <col min="96" max="96" width="18.6666666666667" customWidth="1"/>
-    <col min="97" max="97" width="10.7777777777778" customWidth="1"/>
-    <col min="98" max="98" width="14.1111111111111" customWidth="1"/>
+    <col min="79" max="79" width="11.88671875" customWidth="1"/>
+    <col min="80" max="80" width="10.77734375" customWidth="1"/>
+    <col min="81" max="81" width="11.88671875" customWidth="1"/>
+    <col min="82" max="83" width="7.6640625" customWidth="1"/>
+    <col min="84" max="85" width="17.5546875" customWidth="1"/>
+    <col min="86" max="86" width="16.44140625" customWidth="1"/>
+    <col min="87" max="87" width="11.88671875" customWidth="1"/>
+    <col min="88" max="88" width="14.109375" customWidth="1"/>
+    <col min="89" max="89" width="16.44140625" customWidth="1"/>
+    <col min="90" max="90" width="10.77734375" customWidth="1"/>
+    <col min="91" max="91" width="11.88671875" customWidth="1"/>
+    <col min="92" max="92" width="19.77734375" customWidth="1"/>
+    <col min="93" max="93" width="16.44140625" customWidth="1"/>
+    <col min="94" max="94" width="23.109375" customWidth="1"/>
+    <col min="95" max="95" width="7.6640625" customWidth="1"/>
+    <col min="96" max="96" width="18.6640625" customWidth="1"/>
+    <col min="97" max="97" width="10.77734375" customWidth="1"/>
+    <col min="98" max="98" width="14.109375" customWidth="1"/>
     <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.4444444444444" customWidth="1"/>
+    <col min="100" max="100" width="16.44140625" customWidth="1"/>
     <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.66666666666667" customWidth="1"/>
-    <col min="104" max="104" width="16.4444444444444" customWidth="1"/>
-    <col min="105" max="105" width="14.1111111111111" customWidth="1"/>
-    <col min="106" max="106" width="11.8888888888889" customWidth="1"/>
-    <col min="107" max="108" width="15.2222222222222" customWidth="1"/>
-    <col min="109" max="109" width="9.66666666666667" customWidth="1"/>
+    <col min="103" max="103" width="9.6640625" customWidth="1"/>
+    <col min="104" max="104" width="16.44140625" customWidth="1"/>
+    <col min="105" max="105" width="14.109375" customWidth="1"/>
+    <col min="106" max="106" width="11.88671875" customWidth="1"/>
+    <col min="107" max="108" width="15.21875" customWidth="1"/>
+    <col min="109" max="109" width="9.6640625" customWidth="1"/>
     <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.66666666666667" customWidth="1"/>
-    <col min="112" max="112" width="15.2222222222222" customWidth="1"/>
-    <col min="113" max="113" width="17.5555555555556" customWidth="1"/>
-    <col min="114" max="114" width="14.1111111111111" customWidth="1"/>
-    <col min="115" max="115" width="19.7777777777778" customWidth="1"/>
-    <col min="116" max="116" width="16.4444444444444" customWidth="1"/>
-    <col min="117" max="117" width="20.8888888888889" customWidth="1"/>
-    <col min="118" max="118" width="24.2222222222222" customWidth="1"/>
-    <col min="119" max="119" width="16.4444444444444" customWidth="1"/>
-    <col min="120" max="120" width="17.5555555555556" customWidth="1"/>
+    <col min="111" max="111" width="9.6640625" customWidth="1"/>
+    <col min="112" max="112" width="15.21875" customWidth="1"/>
+    <col min="113" max="113" width="17.5546875" customWidth="1"/>
+    <col min="114" max="114" width="14.109375" customWidth="1"/>
+    <col min="115" max="115" width="19.77734375" customWidth="1"/>
+    <col min="116" max="116" width="16.44140625" customWidth="1"/>
+    <col min="117" max="117" width="20.88671875" customWidth="1"/>
+    <col min="118" max="118" width="24.21875" customWidth="1"/>
+    <col min="119" max="119" width="16.44140625" customWidth="1"/>
+    <col min="120" max="120" width="17.5546875" customWidth="1"/>
     <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.8888888888889" customWidth="1"/>
-    <col min="124" max="124" width="19.7777777777778" customWidth="1"/>
-    <col min="125" max="125" width="17.5555555555556" customWidth="1"/>
-    <col min="126" max="126" width="20.8888888888889" customWidth="1"/>
-    <col min="127" max="127" width="18.6666666666667" customWidth="1"/>
-    <col min="128" max="128" width="8.66666666666667" customWidth="1"/>
-    <col min="129" max="129" width="15.2222222222222" customWidth="1"/>
+    <col min="122" max="123" width="20.88671875" customWidth="1"/>
+    <col min="124" max="124" width="19.77734375" customWidth="1"/>
+    <col min="125" max="125" width="17.5546875" customWidth="1"/>
+    <col min="126" max="126" width="20.88671875" customWidth="1"/>
+    <col min="127" max="127" width="18.6640625" customWidth="1"/>
+    <col min="128" max="128" width="8.6640625" customWidth="1"/>
+    <col min="129" max="129" width="15.21875" customWidth="1"/>
     <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="14.1111111111111" customWidth="1"/>
-    <col min="132" max="132" width="10.7777777777778" customWidth="1"/>
-    <col min="133" max="133" width="11.8888888888889" customWidth="1"/>
-    <col min="134" max="134" width="15.2222222222222" customWidth="1"/>
-    <col min="135" max="135" width="16.4444444444444" customWidth="1"/>
-    <col min="136" max="136" width="14.1111111111111" customWidth="1"/>
-    <col min="137" max="137" width="17.5555555555556" customWidth="1"/>
-    <col min="138" max="138" width="14.1111111111111" customWidth="1"/>
+    <col min="131" max="131" width="14.109375" customWidth="1"/>
+    <col min="132" max="132" width="10.77734375" customWidth="1"/>
+    <col min="133" max="133" width="11.88671875" customWidth="1"/>
+    <col min="134" max="134" width="15.21875" customWidth="1"/>
+    <col min="135" max="135" width="16.44140625" customWidth="1"/>
+    <col min="136" max="136" width="14.109375" customWidth="1"/>
+    <col min="137" max="137" width="17.5546875" customWidth="1"/>
+    <col min="138" max="138" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:138">
+    <row r="1" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -2952,384 +2334,384 @@
         <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="DL1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="EH1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:137">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>86</v>
@@ -3341,16 +2723,16 @@
         <v>89</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>97</v>
@@ -3362,76 +2744,76 @@
         <v>97</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>97</v>
@@ -3443,13 +2825,13 @@
         <v>89</v>
       </c>
       <c r="AT2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>93</v>
@@ -3458,19 +2840,19 @@
         <v>94</v>
       </c>
       <c r="AZ2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC2" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BA2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>91</v>
@@ -3488,94 +2870,94 @@
         <v>91</v>
       </c>
       <c r="BN2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BP2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BW2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BX2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="CK2" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="CR2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="CT2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DE2" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>94</v>
@@ -3623,54 +3005,54 @@
         <v>94</v>
       </c>
       <c r="EC2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="ED2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="EE2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="EG2" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:137">
-      <c r="A3" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>97</v>
@@ -3682,22 +3064,22 @@
         <v>97</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>94</v>
@@ -3706,7 +3088,7 @@
         <v>94</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>91</v>
@@ -3751,25 +3133,25 @@
         <v>94</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AT3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV3" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>93</v>
@@ -3778,19 +3160,19 @@
         <v>94</v>
       </c>
       <c r="AZ3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BA3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>91</v>
@@ -3808,10 +3190,10 @@
         <v>91</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>91</v>
@@ -3823,79 +3205,79 @@
         <v>94</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BW3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BX3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="CJ3" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="CK3" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="CR3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="CT3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DE3" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DA3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DD3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DE3" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="DF3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>94</v>
@@ -3943,7 +3325,7 @@
         <v>94</v>
       </c>
       <c r="EC3" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="ED3" s="1" t="s">
         <v>94</v>
@@ -3955,21 +3337,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:137">
+    <row r="4" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>86</v>
@@ -3981,7 +3363,7 @@
         <v>89</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>88</v>
@@ -4002,13 +3384,13 @@
         <v>97</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>98</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>95</v>
@@ -4017,16 +3399,16 @@
         <v>92</v>
       </c>
       <c r="X4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>95</v>
@@ -4071,7 +3453,7 @@
         <v>94</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>97</v>
@@ -4083,13 +3465,13 @@
         <v>89</v>
       </c>
       <c r="AT4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV4" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>93</v>
@@ -4098,25 +3480,25 @@
         <v>94</v>
       </c>
       <c r="AZ4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC4" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BA4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BC4" s="1" t="s">
+      <c r="BF4" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BF4" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="BG4" s="1" t="s">
         <v>91</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BI4" s="1" t="s">
         <v>92</v>
@@ -4131,10 +3513,10 @@
         <v>91</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>91</v>
@@ -4146,79 +3528,79 @@
         <v>94</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BW4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BX4" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BY4" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BZ4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CA4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CB4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CD4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CE4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="CJ4" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="CK4" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="CR4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="CT4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="CT4" s="1" t="s">
+      <c r="CV4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DE4" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="CV4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DA4" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="DC4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DD4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DE4" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="DF4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DG4" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>94</v>
@@ -4266,7 +3648,7 @@
         <v>94</v>
       </c>
       <c r="EC4" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="ED4" s="1" t="s">
         <v>94</v>
@@ -4278,36 +3660,36 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:137">
+    <row r="5" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>90</v>
@@ -4325,22 +3707,22 @@
         <v>97</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>98</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>92</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>94</v>
@@ -4349,10 +3731,10 @@
         <v>94</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>94</v>
@@ -4394,25 +3776,25 @@
         <v>94</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS5" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AT5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV5" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>93</v>
@@ -4421,25 +3803,25 @@
         <v>94</v>
       </c>
       <c r="AZ5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC5" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BA5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BC5" s="1" t="s">
+      <c r="BF5" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BF5" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="BG5" s="1" t="s">
         <v>91</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BI5" s="1" t="s">
         <v>92</v>
@@ -4454,10 +3836,10 @@
         <v>91</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>91</v>
@@ -4469,79 +3851,79 @@
         <v>94</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BW5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CB5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CJ5" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BX5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BY5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BZ5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CA5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CB5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CG5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="CK5" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="CR5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="CT5" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="CT5" s="1" t="s">
+      <c r="CV5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DA5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DC5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DD5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DE5" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="CV5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DA5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="DC5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DD5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DE5" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="DF5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DG5" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>94</v>
@@ -4589,7 +3971,7 @@
         <v>94</v>
       </c>
       <c r="EC5" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="ED5" s="1" t="s">
         <v>94</v>
@@ -4601,53 +3983,52 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
+    <row r="6" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="7.66666666666667" customWidth="1"/>
-    <col min="3" max="3" width="6.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="9.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="6" width="13" customWidth="1"/>
-    <col min="7" max="9" width="14.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="11.8888888888889" customWidth="1"/>
-    <col min="11" max="11" width="15.2222222222222" customWidth="1"/>
-    <col min="12" max="12" width="20.8888888888889" customWidth="1"/>
-    <col min="13" max="13" width="18.6666666666667" customWidth="1"/>
+    <col min="7" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
     <col min="14" max="14" width="22" customWidth="1"/>
-    <col min="15" max="15" width="18.6666666666667" customWidth="1"/>
-    <col min="16" max="16" width="19.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="14.1111111111111" customWidth="1"/>
-    <col min="18" max="18" width="23.1111111111111" customWidth="1"/>
-    <col min="19" max="19" width="15.2222222222222" customWidth="1"/>
-    <col min="20" max="20" width="14.1111111111111" customWidth="1"/>
-    <col min="21" max="22" width="16.4444444444444" customWidth="1"/>
-    <col min="23" max="23" width="7.66666666666667" customWidth="1"/>
-    <col min="24" max="24" width="8.66666666666667" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="19.77734375" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" customWidth="1"/>
+    <col min="19" max="19" width="15.21875" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="21" max="22" width="16.44140625" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:24">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4659,81 +4040,81 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="X1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:24">
-      <c r="A2" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>91</v>
@@ -4760,13 +4141,13 @@
         <v>91</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>92</v>
@@ -4775,7 +4156,7 @@
         <v>92</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>99</v>
@@ -4784,51 +4165,51 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:24">
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>92</v>
@@ -4840,7 +4221,7 @@
         <v>92</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>99</v>
@@ -4849,10 +4230,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/用例数据/深港/红股/腾讯分京东/测试结果.xlsx
+++ b/用例数据/深港/红股/腾讯分京东/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="303">
   <si>
     <t>EXCHID</t>
   </si>
@@ -713,15 +713,9 @@
     <t>BUSINESSCODE</t>
   </si>
   <si>
-    <t>50043</t>
-  </si>
-  <si>
     <t>005_004_075</t>
   </si>
   <si>
-    <t>20220326104616</t>
-  </si>
-  <si>
     <t>000001</t>
   </si>
   <si>
@@ -740,12 +734,6 @@
     <t>7500</t>
   </si>
   <si>
-    <t>20220325000000</t>
-  </si>
-  <si>
-    <t>9716774.830</t>
-  </si>
-  <si>
     <t>A9</t>
   </si>
   <si>
@@ -767,9 +755,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>000006874949</t>
-  </si>
-  <si>
     <t>NONDVP</t>
   </si>
   <si>
@@ -785,21 +770,9 @@
     <t>A</t>
   </si>
   <si>
-    <t>50044</t>
-  </si>
-  <si>
     <t>5200</t>
   </si>
   <si>
-    <t>9667184.830</t>
-  </si>
-  <si>
-    <t>000006874950</t>
-  </si>
-  <si>
-    <t>50041</t>
-  </si>
-  <si>
     <t>005_003_003</t>
   </si>
   <si>
@@ -809,15 +782,6 @@
     <t>QPTG股份托管日流通数量增加，派发证券类别：H0</t>
   </si>
   <si>
-    <t>000006874947</t>
-  </si>
-  <si>
-    <t>50042</t>
-  </si>
-  <si>
-    <t>000006874948</t>
-  </si>
-  <si>
     <t>RIGHTSSTKID</t>
   </si>
   <si>
@@ -906,6 +870,66 @@
   </si>
   <si>
     <t>0.902400</t>
+  </si>
+  <si>
+    <t>45881.6400</t>
+  </si>
+  <si>
+    <t>128.5200</t>
+  </si>
+  <si>
+    <t>41403.5900</t>
+  </si>
+  <si>
+    <t>31872.9600</t>
+  </si>
+  <si>
+    <t>28762.1600</t>
+  </si>
+  <si>
+    <t>OTHERFEE4</t>
+  </si>
+  <si>
+    <t>30002126</t>
+  </si>
+  <si>
+    <t>20221215224745</t>
+  </si>
+  <si>
+    <t>CCB1</t>
+  </si>
+  <si>
+    <t>20221215000000</t>
+  </si>
+  <si>
+    <t>938775608.420</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>000007096675</t>
+  </si>
+  <si>
+    <t>30002128</t>
+  </si>
+  <si>
+    <t>000007096677</t>
+  </si>
+  <si>
+    <t>30002127</t>
+  </si>
+  <si>
+    <t>1060983938.510</t>
+  </si>
+  <si>
+    <t>000007096676</t>
+  </si>
+  <si>
+    <t>30002129</t>
+  </si>
+  <si>
+    <t>000007096678</t>
   </si>
 </sst>
 </file>
@@ -1256,88 +1280,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
-    <col min="15" max="16" width="15.21875" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" customWidth="1"/>
-    <col min="18" max="18" width="17.5546875" customWidth="1"/>
-    <col min="19" max="19" width="14.109375" customWidth="1"/>
-    <col min="20" max="20" width="16.44140625" customWidth="1"/>
-    <col min="21" max="21" width="11.88671875" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" customWidth="1"/>
-    <col min="23" max="23" width="10.77734375" customWidth="1"/>
-    <col min="24" max="24" width="7.6640625" customWidth="1"/>
-    <col min="25" max="25" width="17.5546875" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" customWidth="1"/>
-    <col min="27" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="11.88671875" customWidth="1"/>
-    <col min="30" max="30" width="15.21875" customWidth="1"/>
-    <col min="31" max="31" width="10.77734375" customWidth="1"/>
-    <col min="32" max="32" width="16.44140625" customWidth="1"/>
-    <col min="33" max="33" width="15.21875" customWidth="1"/>
-    <col min="34" max="34" width="22" customWidth="1"/>
-    <col min="35" max="35" width="11.88671875" customWidth="1"/>
-    <col min="36" max="36" width="20.88671875" customWidth="1"/>
-    <col min="37" max="37" width="24.21875" customWidth="1"/>
-    <col min="38" max="38" width="23.109375" customWidth="1"/>
-    <col min="39" max="40" width="13" customWidth="1"/>
-    <col min="41" max="41" width="14.109375" customWidth="1"/>
-    <col min="42" max="42" width="13" customWidth="1"/>
-    <col min="43" max="44" width="14.109375" customWidth="1"/>
-    <col min="45" max="46" width="15.21875" customWidth="1"/>
-    <col min="47" max="48" width="13" customWidth="1"/>
-    <col min="49" max="49" width="14.109375" customWidth="1"/>
-    <col min="50" max="50" width="16.44140625" customWidth="1"/>
-    <col min="51" max="51" width="23.109375" customWidth="1"/>
-    <col min="52" max="52" width="19.77734375" customWidth="1"/>
-    <col min="53" max="53" width="23.109375" customWidth="1"/>
-    <col min="54" max="54" width="15.21875" customWidth="1"/>
-    <col min="55" max="55" width="18.6640625" customWidth="1"/>
-    <col min="56" max="56" width="17.5546875" customWidth="1"/>
-    <col min="57" max="58" width="16.44140625" customWidth="1"/>
-    <col min="59" max="60" width="17.5546875" customWidth="1"/>
-    <col min="61" max="61" width="16.44140625" customWidth="1"/>
-    <col min="62" max="62" width="17.5546875" customWidth="1"/>
-    <col min="63" max="63" width="18.6640625" customWidth="1"/>
-    <col min="64" max="64" width="25.44140625" customWidth="1"/>
-    <col min="65" max="65" width="27.6640625" customWidth="1"/>
-    <col min="66" max="66" width="20.88671875" customWidth="1"/>
-    <col min="67" max="67" width="16.44140625" customWidth="1"/>
-    <col min="68" max="68" width="23.109375" customWidth="1"/>
-    <col min="69" max="69" width="9.6640625" customWidth="1"/>
-    <col min="70" max="70" width="23.109375" customWidth="1"/>
-    <col min="71" max="71" width="18.6640625" customWidth="1"/>
-    <col min="72" max="72" width="24.21875" customWidth="1"/>
-    <col min="73" max="73" width="19.77734375" customWidth="1"/>
-    <col min="74" max="74" width="14.109375" customWidth="1"/>
-    <col min="75" max="75" width="17.5546875" customWidth="1"/>
-    <col min="76" max="76" width="15.21875" customWidth="1"/>
-    <col min="77" max="77" width="16.44140625" customWidth="1"/>
-    <col min="78" max="78" width="18.6640625" customWidth="1"/>
-    <col min="79" max="79" width="19.77734375" customWidth="1"/>
-    <col min="80" max="80" width="26.5546875" customWidth="1"/>
-    <col min="81" max="81" width="14.109375" customWidth="1"/>
-    <col min="82" max="82" width="13" customWidth="1"/>
-    <col min="83" max="83" width="22" customWidth="1"/>
-    <col min="84" max="84" width="17.5546875" customWidth="1"/>
-    <col min="85" max="85" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="15" width="15.21875" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" customWidth="1"/>
+    <col min="24" max="24" width="17.5546875" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" customWidth="1"/>
+    <col min="26" max="27" width="13" customWidth="1"/>
+    <col min="28" max="28" width="11.88671875" customWidth="1"/>
+    <col min="29" max="29" width="15.21875" customWidth="1"/>
+    <col min="30" max="30" width="10.77734375" customWidth="1"/>
+    <col min="31" max="31" width="16.44140625" customWidth="1"/>
+    <col min="32" max="32" width="15.21875" customWidth="1"/>
+    <col min="33" max="33" width="22" customWidth="1"/>
+    <col min="34" max="34" width="11.88671875" customWidth="1"/>
+    <col min="35" max="35" width="20.88671875" customWidth="1"/>
+    <col min="36" max="36" width="24.21875" customWidth="1"/>
+    <col min="37" max="37" width="23.109375" customWidth="1"/>
+    <col min="38" max="39" width="13" customWidth="1"/>
+    <col min="40" max="40" width="14.109375" customWidth="1"/>
+    <col min="41" max="41" width="13" customWidth="1"/>
+    <col min="42" max="43" width="14.109375" customWidth="1"/>
+    <col min="44" max="45" width="15.21875" customWidth="1"/>
+    <col min="46" max="47" width="13" customWidth="1"/>
+    <col min="48" max="48" width="14.109375" customWidth="1"/>
+    <col min="49" max="49" width="16.44140625" customWidth="1"/>
+    <col min="50" max="50" width="23.109375" customWidth="1"/>
+    <col min="51" max="51" width="19.77734375" customWidth="1"/>
+    <col min="52" max="52" width="23.109375" customWidth="1"/>
+    <col min="53" max="53" width="15.21875" customWidth="1"/>
+    <col min="54" max="54" width="18.6640625" customWidth="1"/>
+    <col min="55" max="55" width="17.5546875" customWidth="1"/>
+    <col min="56" max="57" width="16.44140625" customWidth="1"/>
+    <col min="58" max="59" width="17.5546875" customWidth="1"/>
+    <col min="60" max="60" width="16.44140625" customWidth="1"/>
+    <col min="61" max="61" width="17.5546875" customWidth="1"/>
+    <col min="62" max="62" width="18.6640625" customWidth="1"/>
+    <col min="63" max="63" width="25.44140625" customWidth="1"/>
+    <col min="64" max="64" width="27.6640625" customWidth="1"/>
+    <col min="65" max="65" width="20.88671875" customWidth="1"/>
+    <col min="66" max="66" width="16.44140625" customWidth="1"/>
+    <col min="67" max="67" width="23.109375" customWidth="1"/>
+    <col min="68" max="68" width="9.6640625" customWidth="1"/>
+    <col min="69" max="69" width="23.109375" customWidth="1"/>
+    <col min="70" max="70" width="18.6640625" customWidth="1"/>
+    <col min="71" max="71" width="24.21875" customWidth="1"/>
+    <col min="72" max="72" width="19.77734375" customWidth="1"/>
+    <col min="73" max="73" width="14.109375" customWidth="1"/>
+    <col min="74" max="74" width="17.5546875" customWidth="1"/>
+    <col min="75" max="75" width="15.21875" customWidth="1"/>
+    <col min="76" max="76" width="16.44140625" customWidth="1"/>
+    <col min="77" max="77" width="18.6640625" customWidth="1"/>
+    <col min="78" max="78" width="19.77734375" customWidth="1"/>
+    <col min="79" max="79" width="26.5546875" customWidth="1"/>
+    <col min="80" max="80" width="14.109375" customWidth="1"/>
+    <col min="81" max="81" width="13" customWidth="1"/>
+    <col min="82" max="82" width="22" customWidth="1"/>
+    <col min="83" max="83" width="17.5546875" customWidth="1"/>
+    <col min="84" max="84" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1635,7 +1659,7 @@
         <v>92</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>93</v>
+        <v>283</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>94</v>
@@ -1680,7 +1704,7 @@
         <v>93</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>93</v>
+        <v>284</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>91</v>
@@ -1725,7 +1749,7 @@
         <v>99</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>91</v>
@@ -1803,13 +1827,13 @@
         <v>92</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>93</v>
+        <v>285</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>91</v>
@@ -1895,7 +1919,7 @@
         <v>92</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>93</v>
+        <v>286</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>94</v>
@@ -1940,7 +1964,7 @@
         <v>93</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>93</v>
+        <v>284</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>91</v>
@@ -1985,7 +2009,7 @@
         <v>99</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>91</v>
@@ -2063,13 +2087,13 @@
         <v>92</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="BS3" s="1" t="s">
         <v>91</v>
@@ -2145,143 +2169,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EH10"/>
+  <dimension ref="A1:EI10"/>
   <sheetViews>
-    <sheetView topLeftCell="BY1" workbookViewId="0">
-      <selection activeCell="CI10" sqref="CI10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" customWidth="1"/>
-    <col min="21" max="21" width="10.77734375" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" customWidth="1"/>
-    <col min="23" max="23" width="11.88671875" customWidth="1"/>
-    <col min="24" max="24" width="16.44140625" customWidth="1"/>
-    <col min="25" max="25" width="14.109375" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" customWidth="1"/>
-    <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" customWidth="1"/>
-    <col min="29" max="29" width="9.6640625" customWidth="1"/>
-    <col min="30" max="30" width="23.109375" customWidth="1"/>
-    <col min="31" max="31" width="10.77734375" customWidth="1"/>
-    <col min="32" max="32" width="15.21875" customWidth="1"/>
-    <col min="33" max="34" width="14.109375" customWidth="1"/>
-    <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.6640625" customWidth="1"/>
-    <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.77734375" customWidth="1"/>
-    <col min="40" max="40" width="14.109375" customWidth="1"/>
-    <col min="41" max="41" width="11.88671875" customWidth="1"/>
-    <col min="42" max="43" width="9.6640625" customWidth="1"/>
-    <col min="44" max="45" width="14.109375" customWidth="1"/>
-    <col min="46" max="46" width="9.6640625" customWidth="1"/>
-    <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.109375" customWidth="1"/>
-    <col min="49" max="49" width="8.6640625" customWidth="1"/>
-    <col min="50" max="50" width="17.5546875" customWidth="1"/>
-    <col min="51" max="51" width="11.88671875" customWidth="1"/>
-    <col min="52" max="52" width="8.6640625" customWidth="1"/>
-    <col min="53" max="53" width="9.6640625" customWidth="1"/>
-    <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.44140625" customWidth="1"/>
-    <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.44140625" customWidth="1"/>
-    <col min="59" max="59" width="15.21875" customWidth="1"/>
-    <col min="60" max="60" width="50.109375" customWidth="1"/>
-    <col min="61" max="61" width="17.5546875" customWidth="1"/>
-    <col min="62" max="62" width="14.109375" customWidth="1"/>
-    <col min="63" max="63" width="11.88671875" customWidth="1"/>
-    <col min="64" max="64" width="8.6640625" customWidth="1"/>
-    <col min="65" max="65" width="14.109375" customWidth="1"/>
-    <col min="66" max="66" width="9.6640625" customWidth="1"/>
-    <col min="67" max="67" width="17.5546875" customWidth="1"/>
-    <col min="68" max="68" width="10.77734375" customWidth="1"/>
-    <col min="69" max="69" width="11.88671875" customWidth="1"/>
-    <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.88671875" customWidth="1"/>
-    <col min="72" max="72" width="15.21875" customWidth="1"/>
-    <col min="73" max="73" width="11.88671875" customWidth="1"/>
-    <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.5546875" customWidth="1"/>
-    <col min="76" max="76" width="20.88671875" customWidth="1"/>
-    <col min="77" max="77" width="16.44140625" customWidth="1"/>
-    <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.88671875" customWidth="1"/>
-    <col min="80" max="80" width="10.77734375" customWidth="1"/>
-    <col min="81" max="81" width="11.88671875" customWidth="1"/>
-    <col min="82" max="83" width="7.6640625" customWidth="1"/>
-    <col min="84" max="85" width="17.5546875" customWidth="1"/>
-    <col min="86" max="86" width="16.44140625" customWidth="1"/>
-    <col min="87" max="87" width="11.88671875" customWidth="1"/>
-    <col min="88" max="88" width="14.109375" customWidth="1"/>
-    <col min="89" max="89" width="16.44140625" customWidth="1"/>
-    <col min="90" max="90" width="10.77734375" customWidth="1"/>
-    <col min="91" max="91" width="11.88671875" customWidth="1"/>
-    <col min="92" max="92" width="19.77734375" customWidth="1"/>
-    <col min="93" max="93" width="16.44140625" customWidth="1"/>
-    <col min="94" max="94" width="23.109375" customWidth="1"/>
-    <col min="95" max="95" width="7.6640625" customWidth="1"/>
-    <col min="96" max="96" width="18.6640625" customWidth="1"/>
-    <col min="97" max="97" width="10.77734375" customWidth="1"/>
-    <col min="98" max="98" width="14.109375" customWidth="1"/>
-    <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.44140625" customWidth="1"/>
-    <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.6640625" customWidth="1"/>
-    <col min="104" max="104" width="16.44140625" customWidth="1"/>
-    <col min="105" max="105" width="14.109375" customWidth="1"/>
-    <col min="106" max="106" width="11.88671875" customWidth="1"/>
-    <col min="107" max="108" width="15.21875" customWidth="1"/>
-    <col min="109" max="109" width="9.6640625" customWidth="1"/>
-    <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.6640625" customWidth="1"/>
-    <col min="112" max="112" width="15.21875" customWidth="1"/>
-    <col min="113" max="113" width="17.5546875" customWidth="1"/>
-    <col min="114" max="114" width="14.109375" customWidth="1"/>
-    <col min="115" max="115" width="19.77734375" customWidth="1"/>
-    <col min="116" max="116" width="16.44140625" customWidth="1"/>
-    <col min="117" max="117" width="20.88671875" customWidth="1"/>
-    <col min="118" max="118" width="24.21875" customWidth="1"/>
-    <col min="119" max="119" width="16.44140625" customWidth="1"/>
-    <col min="120" max="120" width="17.5546875" customWidth="1"/>
-    <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.88671875" customWidth="1"/>
-    <col min="124" max="124" width="19.77734375" customWidth="1"/>
-    <col min="125" max="125" width="17.5546875" customWidth="1"/>
-    <col min="126" max="126" width="20.88671875" customWidth="1"/>
-    <col min="127" max="127" width="18.6640625" customWidth="1"/>
-    <col min="128" max="128" width="8.6640625" customWidth="1"/>
-    <col min="129" max="129" width="15.21875" customWidth="1"/>
-    <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="14.109375" customWidth="1"/>
-    <col min="132" max="132" width="10.77734375" customWidth="1"/>
-    <col min="133" max="133" width="11.88671875" customWidth="1"/>
-    <col min="134" max="134" width="15.21875" customWidth="1"/>
-    <col min="135" max="135" width="16.44140625" customWidth="1"/>
-    <col min="136" max="136" width="14.109375" customWidth="1"/>
-    <col min="137" max="137" width="17.5546875" customWidth="1"/>
-    <col min="138" max="138" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.77734375" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.77734375" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" customWidth="1"/>
+    <col min="23" max="23" width="16.44140625" customWidth="1"/>
+    <col min="24" max="24" width="14.109375" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" customWidth="1"/>
+    <col min="26" max="26" width="13" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" customWidth="1"/>
+    <col min="28" max="28" width="9.6640625" customWidth="1"/>
+    <col min="29" max="29" width="23.109375" customWidth="1"/>
+    <col min="30" max="30" width="10.77734375" customWidth="1"/>
+    <col min="31" max="31" width="15.21875" customWidth="1"/>
+    <col min="32" max="33" width="14.109375" customWidth="1"/>
+    <col min="34" max="35" width="13" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" customWidth="1"/>
+    <col min="37" max="37" width="13" customWidth="1"/>
+    <col min="38" max="38" width="10.77734375" customWidth="1"/>
+    <col min="39" max="39" width="14.109375" customWidth="1"/>
+    <col min="40" max="40" width="11.88671875" customWidth="1"/>
+    <col min="41" max="42" width="9.6640625" customWidth="1"/>
+    <col min="43" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="9.6640625" customWidth="1"/>
+    <col min="46" max="46" width="13" customWidth="1"/>
+    <col min="47" max="47" width="14.109375" customWidth="1"/>
+    <col min="48" max="48" width="8.6640625" customWidth="1"/>
+    <col min="49" max="49" width="17.5546875" customWidth="1"/>
+    <col min="50" max="50" width="11.88671875" customWidth="1"/>
+    <col min="51" max="51" width="8.6640625" customWidth="1"/>
+    <col min="52" max="52" width="9.6640625" customWidth="1"/>
+    <col min="53" max="53" width="13" customWidth="1"/>
+    <col min="54" max="54" width="16.44140625" customWidth="1"/>
+    <col min="55" max="56" width="13" customWidth="1"/>
+    <col min="57" max="57" width="16.44140625" customWidth="1"/>
+    <col min="58" max="58" width="15.21875" customWidth="1"/>
+    <col min="59" max="59" width="50.109375" customWidth="1"/>
+    <col min="60" max="60" width="17.5546875" customWidth="1"/>
+    <col min="61" max="61" width="14.109375" customWidth="1"/>
+    <col min="62" max="62" width="11.88671875" customWidth="1"/>
+    <col min="63" max="63" width="8.6640625" customWidth="1"/>
+    <col min="64" max="64" width="14.109375" customWidth="1"/>
+    <col min="65" max="65" width="9.6640625" customWidth="1"/>
+    <col min="66" max="66" width="17.5546875" customWidth="1"/>
+    <col min="67" max="67" width="10.77734375" customWidth="1"/>
+    <col min="68" max="68" width="11.88671875" customWidth="1"/>
+    <col min="69" max="69" width="13" customWidth="1"/>
+    <col min="70" max="70" width="11.88671875" customWidth="1"/>
+    <col min="71" max="71" width="15.21875" customWidth="1"/>
+    <col min="72" max="72" width="11.88671875" customWidth="1"/>
+    <col min="73" max="73" width="13" customWidth="1"/>
+    <col min="74" max="74" width="17.5546875" customWidth="1"/>
+    <col min="75" max="75" width="20.88671875" customWidth="1"/>
+    <col min="76" max="76" width="16.44140625" customWidth="1"/>
+    <col min="77" max="77" width="13" customWidth="1"/>
+    <col min="78" max="78" width="11.88671875" customWidth="1"/>
+    <col min="79" max="79" width="10.77734375" customWidth="1"/>
+    <col min="80" max="80" width="11.88671875" customWidth="1"/>
+    <col min="81" max="82" width="7.6640625" customWidth="1"/>
+    <col min="83" max="84" width="17.5546875" customWidth="1"/>
+    <col min="85" max="85" width="16.44140625" customWidth="1"/>
+    <col min="86" max="86" width="11.88671875" customWidth="1"/>
+    <col min="87" max="87" width="14.109375" customWidth="1"/>
+    <col min="88" max="88" width="16.44140625" customWidth="1"/>
+    <col min="89" max="89" width="10.77734375" customWidth="1"/>
+    <col min="90" max="90" width="11.88671875" customWidth="1"/>
+    <col min="91" max="91" width="19.77734375" customWidth="1"/>
+    <col min="92" max="92" width="16.44140625" customWidth="1"/>
+    <col min="93" max="93" width="23.109375" customWidth="1"/>
+    <col min="94" max="94" width="7.6640625" customWidth="1"/>
+    <col min="95" max="95" width="18.6640625" customWidth="1"/>
+    <col min="96" max="96" width="10.77734375" customWidth="1"/>
+    <col min="97" max="97" width="14.109375" customWidth="1"/>
+    <col min="98" max="98" width="13" customWidth="1"/>
+    <col min="99" max="99" width="16.44140625" customWidth="1"/>
+    <col min="100" max="101" width="13" customWidth="1"/>
+    <col min="102" max="102" width="9.6640625" customWidth="1"/>
+    <col min="103" max="103" width="16.44140625" customWidth="1"/>
+    <col min="104" max="104" width="14.109375" customWidth="1"/>
+    <col min="105" max="105" width="11.88671875" customWidth="1"/>
+    <col min="106" max="107" width="15.21875" customWidth="1"/>
+    <col min="108" max="108" width="9.6640625" customWidth="1"/>
+    <col min="109" max="109" width="13" customWidth="1"/>
+    <col min="110" max="110" width="9.6640625" customWidth="1"/>
+    <col min="111" max="111" width="15.21875" customWidth="1"/>
+    <col min="112" max="112" width="17.5546875" customWidth="1"/>
+    <col min="113" max="113" width="14.109375" customWidth="1"/>
+    <col min="114" max="114" width="19.77734375" customWidth="1"/>
+    <col min="115" max="115" width="16.44140625" customWidth="1"/>
+    <col min="116" max="116" width="20.88671875" customWidth="1"/>
+    <col min="117" max="117" width="24.21875" customWidth="1"/>
+    <col min="118" max="118" width="16.44140625" customWidth="1"/>
+    <col min="119" max="119" width="17.5546875" customWidth="1"/>
+    <col min="120" max="120" width="22" customWidth="1"/>
+    <col min="121" max="122" width="20.88671875" customWidth="1"/>
+    <col min="123" max="123" width="19.77734375" customWidth="1"/>
+    <col min="124" max="124" width="17.5546875" customWidth="1"/>
+    <col min="125" max="125" width="20.88671875" customWidth="1"/>
+    <col min="126" max="126" width="18.6640625" customWidth="1"/>
+    <col min="127" max="127" width="8.6640625" customWidth="1"/>
+    <col min="128" max="128" width="15.21875" customWidth="1"/>
+    <col min="129" max="129" width="13" customWidth="1"/>
+    <col min="130" max="130" width="14.109375" customWidth="1"/>
+    <col min="131" max="131" width="10.77734375" customWidth="1"/>
+    <col min="132" max="132" width="11.88671875" customWidth="1"/>
+    <col min="133" max="133" width="15.21875" customWidth="1"/>
+    <col min="134" max="134" width="16.44140625" customWidth="1"/>
+    <col min="135" max="135" width="14.109375" customWidth="1"/>
+    <col min="136" max="136" width="17.5546875" customWidth="1"/>
+    <col min="137" max="137" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
@@ -2696,26 +2719,32 @@
       <c r="EH1" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="EI1" s="1" t="s">
+        <v>288</v>
+      </c>
     </row>
-    <row r="2" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
@@ -2723,16 +2752,16 @@
         <v>89</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>97</v>
@@ -2744,22 +2773,22 @@
         <v>97</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>238</v>
+        <v>95</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>94</v>
@@ -2768,10 +2797,10 @@
         <v>94</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>94</v>
@@ -2813,7 +2842,7 @@
         <v>94</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>97</v>
@@ -2825,13 +2854,13 @@
         <v>89</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>93</v>
@@ -2840,7 +2869,7 @@
         <v>94</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>91</v>
@@ -2849,13 +2878,16 @@
         <v>91</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>92</v>
@@ -2870,10 +2902,10 @@
         <v>91</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>91</v>
@@ -2885,22 +2917,22 @@
         <v>94</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>91</v>
+        <v>294</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>94</v>
@@ -2918,28 +2950,28 @@
         <v>91</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="DC2" s="1" t="s">
         <v>94</v>
@@ -2948,16 +2980,16 @@
         <v>94</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>94</v>
@@ -3005,7 +3037,7 @@
         <v>94</v>
       </c>
       <c r="EC2" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="ED2" s="1" t="s">
         <v>94</v>
@@ -3016,43 +3048,49 @@
       <c r="EG2" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="EI2" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="3" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>97</v>
@@ -3064,22 +3102,22 @@
         <v>97</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>94</v>
@@ -3088,7 +3126,7 @@
         <v>94</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>91</v>
@@ -3133,25 +3171,25 @@
         <v>94</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="AS3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>93</v>
@@ -3160,7 +3198,7 @@
         <v>94</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>91</v>
@@ -3169,10 +3207,10 @@
         <v>91</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>91</v>
@@ -3190,10 +3228,10 @@
         <v>91</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>91</v>
@@ -3205,22 +3243,22 @@
         <v>94</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>91</v>
+        <v>294</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>94</v>
@@ -3238,28 +3276,28 @@
         <v>91</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="DC3" s="1" t="s">
         <v>94</v>
@@ -3268,16 +3306,16 @@
         <v>94</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="DF3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>94</v>
@@ -3325,7 +3363,7 @@
         <v>94</v>
       </c>
       <c r="EC3" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="ED3" s="1" t="s">
         <v>94</v>
@@ -3336,37 +3374,43 @@
       <c r="EG3" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="EI3" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="4" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>90</v>
@@ -3384,22 +3428,22 @@
         <v>97</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>98</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>92</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>94</v>
@@ -3408,10 +3452,10 @@
         <v>94</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>94</v>
@@ -3453,25 +3497,25 @@
         <v>94</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>93</v>
@@ -3480,7 +3524,7 @@
         <v>94</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>91</v>
@@ -3489,16 +3533,16 @@
         <v>91</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>91</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="BI4" s="1" t="s">
         <v>92</v>
@@ -3513,10 +3557,10 @@
         <v>91</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>91</v>
@@ -3528,22 +3572,22 @@
         <v>94</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BX4" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BY4" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>91</v>
+        <v>294</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>94</v>
@@ -3561,28 +3605,28 @@
         <v>91</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="CJ4" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="CV4" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DA4" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="DC4" s="1" t="s">
         <v>94</v>
@@ -3591,16 +3635,16 @@
         <v>94</v>
       </c>
       <c r="DE4" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="DF4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DG4" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>94</v>
@@ -3648,7 +3692,7 @@
         <v>94</v>
       </c>
       <c r="EC4" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="ED4" s="1" t="s">
         <v>94</v>
@@ -3659,26 +3703,32 @@
       <c r="EG4" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="EI4" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="5" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>100</v>
       </c>
@@ -3686,16 +3736,16 @@
         <v>89</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>101</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>97</v>
@@ -3707,22 +3757,22 @@
         <v>97</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>98</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>102</v>
+        <v>249</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>92</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>94</v>
@@ -3731,10 +3781,10 @@
         <v>94</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>94</v>
@@ -3776,7 +3826,7 @@
         <v>94</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>97</v>
@@ -3788,13 +3838,13 @@
         <v>89</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>93</v>
@@ -3803,7 +3853,7 @@
         <v>94</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>91</v>
@@ -3812,16 +3862,13 @@
         <v>91</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="BI5" s="1" t="s">
         <v>92</v>
@@ -3836,10 +3883,10 @@
         <v>91</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>91</v>
@@ -3851,22 +3898,22 @@
         <v>94</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BX5" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BY5" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>91</v>
+        <v>294</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>94</v>
@@ -3884,28 +3931,28 @@
         <v>91</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="CJ5" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="CV5" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DA5" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="DC5" s="1" t="s">
         <v>94</v>
@@ -3914,16 +3961,16 @@
         <v>94</v>
       </c>
       <c r="DE5" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="DF5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DG5" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>94</v>
@@ -3971,7 +4018,7 @@
         <v>94</v>
       </c>
       <c r="EC5" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="ED5" s="1" t="s">
         <v>94</v>
@@ -3982,12 +4029,15 @@
       <c r="EG5" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="EI5" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="6" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4040,81 +4090,81 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>91</v>
@@ -4141,13 +4191,13 @@
         <v>91</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>92</v>
@@ -4156,7 +4206,7 @@
         <v>92</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>99</v>
@@ -4167,25 +4217,25 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>91</v>
@@ -4203,13 +4253,13 @@
         <v>94</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>92</v>
@@ -4221,7 +4271,7 @@
         <v>92</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>99</v>

--- a/用例数据/深港/红股/腾讯分京东/测试结果.xlsx
+++ b/用例数据/深港/红股/腾讯分京东/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="301">
   <si>
     <t>EXCHID</t>
   </si>
@@ -842,21 +842,12 @@
     <t>PAYRATE</t>
   </si>
   <si>
-    <t>20220121000000</t>
-  </si>
-  <si>
     <t>0.00000</t>
   </si>
   <si>
     <t>0.47619048</t>
   </si>
   <si>
-    <t>20220307000000</t>
-  </si>
-  <si>
-    <t>20220523000000</t>
-  </si>
-  <si>
     <t>16.00000000</t>
   </si>
   <si>
@@ -866,9 +857,6 @@
     <t>12.80000000</t>
   </si>
   <si>
-    <t>20220707000000</t>
-  </si>
-  <si>
     <t>0.902400</t>
   </si>
   <si>
@@ -930,6 +918,12 @@
   </si>
   <si>
     <t>000007096678</t>
+  </si>
+  <si>
+    <t>20230214000000</t>
+  </si>
+  <si>
+    <t>20230331000000</t>
   </si>
 </sst>
 </file>
@@ -1284,87 +1278,87 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="20.875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="15" width="15.21875" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" customWidth="1"/>
-    <col min="22" max="22" width="10.77734375" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" customWidth="1"/>
-    <col min="24" max="24" width="17.5546875" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="10.75" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="15" width="15.25" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
+    <col min="17" max="17" width="17.5" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="19" max="19" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="11.875" customWidth="1"/>
+    <col min="21" max="21" width="8.625" customWidth="1"/>
+    <col min="22" max="22" width="10.75" customWidth="1"/>
+    <col min="23" max="23" width="7.625" customWidth="1"/>
+    <col min="24" max="24" width="17.5" customWidth="1"/>
+    <col min="25" max="25" width="9.625" customWidth="1"/>
     <col min="26" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="11.88671875" customWidth="1"/>
-    <col min="29" max="29" width="15.21875" customWidth="1"/>
-    <col min="30" max="30" width="10.77734375" customWidth="1"/>
-    <col min="31" max="31" width="16.44140625" customWidth="1"/>
-    <col min="32" max="32" width="15.21875" customWidth="1"/>
+    <col min="28" max="28" width="11.875" customWidth="1"/>
+    <col min="29" max="29" width="15.25" customWidth="1"/>
+    <col min="30" max="30" width="10.75" customWidth="1"/>
+    <col min="31" max="31" width="16.5" customWidth="1"/>
+    <col min="32" max="32" width="15.25" customWidth="1"/>
     <col min="33" max="33" width="22" customWidth="1"/>
-    <col min="34" max="34" width="11.88671875" customWidth="1"/>
-    <col min="35" max="35" width="20.88671875" customWidth="1"/>
-    <col min="36" max="36" width="24.21875" customWidth="1"/>
-    <col min="37" max="37" width="23.109375" customWidth="1"/>
+    <col min="34" max="34" width="11.875" customWidth="1"/>
+    <col min="35" max="35" width="20.875" customWidth="1"/>
+    <col min="36" max="36" width="24.25" customWidth="1"/>
+    <col min="37" max="37" width="23.125" customWidth="1"/>
     <col min="38" max="39" width="13" customWidth="1"/>
-    <col min="40" max="40" width="14.109375" customWidth="1"/>
+    <col min="40" max="40" width="14.125" customWidth="1"/>
     <col min="41" max="41" width="13" customWidth="1"/>
-    <col min="42" max="43" width="14.109375" customWidth="1"/>
-    <col min="44" max="45" width="15.21875" customWidth="1"/>
+    <col min="42" max="43" width="14.125" customWidth="1"/>
+    <col min="44" max="45" width="15.25" customWidth="1"/>
     <col min="46" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.109375" customWidth="1"/>
-    <col min="49" max="49" width="16.44140625" customWidth="1"/>
-    <col min="50" max="50" width="23.109375" customWidth="1"/>
-    <col min="51" max="51" width="19.77734375" customWidth="1"/>
-    <col min="52" max="52" width="23.109375" customWidth="1"/>
-    <col min="53" max="53" width="15.21875" customWidth="1"/>
-    <col min="54" max="54" width="18.6640625" customWidth="1"/>
-    <col min="55" max="55" width="17.5546875" customWidth="1"/>
-    <col min="56" max="57" width="16.44140625" customWidth="1"/>
-    <col min="58" max="59" width="17.5546875" customWidth="1"/>
-    <col min="60" max="60" width="16.44140625" customWidth="1"/>
-    <col min="61" max="61" width="17.5546875" customWidth="1"/>
-    <col min="62" max="62" width="18.6640625" customWidth="1"/>
-    <col min="63" max="63" width="25.44140625" customWidth="1"/>
-    <col min="64" max="64" width="27.6640625" customWidth="1"/>
-    <col min="65" max="65" width="20.88671875" customWidth="1"/>
-    <col min="66" max="66" width="16.44140625" customWidth="1"/>
-    <col min="67" max="67" width="23.109375" customWidth="1"/>
-    <col min="68" max="68" width="9.6640625" customWidth="1"/>
-    <col min="69" max="69" width="23.109375" customWidth="1"/>
-    <col min="70" max="70" width="18.6640625" customWidth="1"/>
-    <col min="71" max="71" width="24.21875" customWidth="1"/>
-    <col min="72" max="72" width="19.77734375" customWidth="1"/>
-    <col min="73" max="73" width="14.109375" customWidth="1"/>
-    <col min="74" max="74" width="17.5546875" customWidth="1"/>
-    <col min="75" max="75" width="15.21875" customWidth="1"/>
-    <col min="76" max="76" width="16.44140625" customWidth="1"/>
-    <col min="77" max="77" width="18.6640625" customWidth="1"/>
-    <col min="78" max="78" width="19.77734375" customWidth="1"/>
-    <col min="79" max="79" width="26.5546875" customWidth="1"/>
-    <col min="80" max="80" width="14.109375" customWidth="1"/>
+    <col min="48" max="48" width="14.125" customWidth="1"/>
+    <col min="49" max="49" width="16.5" customWidth="1"/>
+    <col min="50" max="50" width="23.125" customWidth="1"/>
+    <col min="51" max="51" width="19.75" customWidth="1"/>
+    <col min="52" max="52" width="23.125" customWidth="1"/>
+    <col min="53" max="53" width="15.25" customWidth="1"/>
+    <col min="54" max="54" width="18.625" customWidth="1"/>
+    <col min="55" max="55" width="17.5" customWidth="1"/>
+    <col min="56" max="57" width="16.5" customWidth="1"/>
+    <col min="58" max="59" width="17.5" customWidth="1"/>
+    <col min="60" max="60" width="16.5" customWidth="1"/>
+    <col min="61" max="61" width="17.5" customWidth="1"/>
+    <col min="62" max="62" width="18.625" customWidth="1"/>
+    <col min="63" max="63" width="25.5" customWidth="1"/>
+    <col min="64" max="64" width="27.625" customWidth="1"/>
+    <col min="65" max="65" width="20.875" customWidth="1"/>
+    <col min="66" max="66" width="16.5" customWidth="1"/>
+    <col min="67" max="67" width="23.125" customWidth="1"/>
+    <col min="68" max="68" width="9.625" customWidth="1"/>
+    <col min="69" max="69" width="23.125" customWidth="1"/>
+    <col min="70" max="70" width="18.625" customWidth="1"/>
+    <col min="71" max="71" width="24.25" customWidth="1"/>
+    <col min="72" max="72" width="19.75" customWidth="1"/>
+    <col min="73" max="73" width="14.125" customWidth="1"/>
+    <col min="74" max="74" width="17.5" customWidth="1"/>
+    <col min="75" max="75" width="15.25" customWidth="1"/>
+    <col min="76" max="76" width="16.5" customWidth="1"/>
+    <col min="77" max="77" width="18.625" customWidth="1"/>
+    <col min="78" max="78" width="19.75" customWidth="1"/>
+    <col min="79" max="79" width="26.5" customWidth="1"/>
+    <col min="80" max="80" width="14.125" customWidth="1"/>
     <col min="81" max="81" width="13" customWidth="1"/>
     <col min="82" max="82" width="22" customWidth="1"/>
-    <col min="83" max="83" width="17.5546875" customWidth="1"/>
-    <col min="84" max="84" width="20.88671875" customWidth="1"/>
+    <col min="83" max="83" width="17.5" customWidth="1"/>
+    <col min="84" max="84" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1618,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -1659,7 +1653,7 @@
         <v>92</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>94</v>
@@ -1704,7 +1698,7 @@
         <v>93</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>91</v>
@@ -1827,13 +1821,13 @@
         <v>92</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>91</v>
@@ -1884,7 +1878,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -1919,7 +1913,7 @@
         <v>92</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>94</v>
@@ -1964,7 +1958,7 @@
         <v>93</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>91</v>
@@ -2087,13 +2081,13 @@
         <v>92</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="BS3" s="1" t="s">
         <v>91</v>
@@ -2144,22 +2138,22 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2171,140 +2165,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="10" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" customWidth="1"/>
-    <col min="20" max="20" width="10.77734375" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" customWidth="1"/>
-    <col min="22" max="22" width="11.88671875" customWidth="1"/>
-    <col min="23" max="23" width="16.44140625" customWidth="1"/>
-    <col min="24" max="24" width="14.109375" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="6.625" customWidth="1"/>
+    <col min="14" max="14" width="9.625" customWidth="1"/>
+    <col min="15" max="15" width="8.625" customWidth="1"/>
+    <col min="16" max="16" width="10.75" customWidth="1"/>
+    <col min="17" max="17" width="8.625" customWidth="1"/>
+    <col min="18" max="18" width="6.625" customWidth="1"/>
+    <col min="19" max="19" width="7.625" customWidth="1"/>
+    <col min="20" max="20" width="10.75" customWidth="1"/>
+    <col min="21" max="21" width="9.625" customWidth="1"/>
+    <col min="22" max="22" width="11.875" customWidth="1"/>
+    <col min="23" max="23" width="16.5" customWidth="1"/>
+    <col min="24" max="24" width="14.125" customWidth="1"/>
+    <col min="25" max="25" width="9.625" customWidth="1"/>
     <col min="26" max="26" width="13" customWidth="1"/>
-    <col min="27" max="27" width="8.6640625" customWidth="1"/>
-    <col min="28" max="28" width="9.6640625" customWidth="1"/>
-    <col min="29" max="29" width="23.109375" customWidth="1"/>
-    <col min="30" max="30" width="10.77734375" customWidth="1"/>
-    <col min="31" max="31" width="15.21875" customWidth="1"/>
-    <col min="32" max="33" width="14.109375" customWidth="1"/>
+    <col min="27" max="27" width="8.625" customWidth="1"/>
+    <col min="28" max="28" width="9.625" customWidth="1"/>
+    <col min="29" max="29" width="23.125" customWidth="1"/>
+    <col min="30" max="30" width="10.75" customWidth="1"/>
+    <col min="31" max="31" width="15.25" customWidth="1"/>
+    <col min="32" max="33" width="14.125" customWidth="1"/>
     <col min="34" max="35" width="13" customWidth="1"/>
-    <col min="36" max="36" width="9.6640625" customWidth="1"/>
+    <col min="36" max="36" width="9.625" customWidth="1"/>
     <col min="37" max="37" width="13" customWidth="1"/>
-    <col min="38" max="38" width="10.77734375" customWidth="1"/>
-    <col min="39" max="39" width="14.109375" customWidth="1"/>
-    <col min="40" max="40" width="11.88671875" customWidth="1"/>
-    <col min="41" max="42" width="9.6640625" customWidth="1"/>
-    <col min="43" max="44" width="14.109375" customWidth="1"/>
-    <col min="45" max="45" width="9.6640625" customWidth="1"/>
+    <col min="38" max="38" width="10.75" customWidth="1"/>
+    <col min="39" max="39" width="14.125" customWidth="1"/>
+    <col min="40" max="40" width="11.875" customWidth="1"/>
+    <col min="41" max="42" width="9.625" customWidth="1"/>
+    <col min="43" max="44" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="9.625" customWidth="1"/>
     <col min="46" max="46" width="13" customWidth="1"/>
-    <col min="47" max="47" width="14.109375" customWidth="1"/>
-    <col min="48" max="48" width="8.6640625" customWidth="1"/>
-    <col min="49" max="49" width="17.5546875" customWidth="1"/>
-    <col min="50" max="50" width="11.88671875" customWidth="1"/>
-    <col min="51" max="51" width="8.6640625" customWidth="1"/>
-    <col min="52" max="52" width="9.6640625" customWidth="1"/>
+    <col min="47" max="47" width="14.125" customWidth="1"/>
+    <col min="48" max="48" width="8.625" customWidth="1"/>
+    <col min="49" max="49" width="17.5" customWidth="1"/>
+    <col min="50" max="50" width="11.875" customWidth="1"/>
+    <col min="51" max="51" width="8.625" customWidth="1"/>
+    <col min="52" max="52" width="9.625" customWidth="1"/>
     <col min="53" max="53" width="13" customWidth="1"/>
-    <col min="54" max="54" width="16.44140625" customWidth="1"/>
+    <col min="54" max="54" width="16.5" customWidth="1"/>
     <col min="55" max="56" width="13" customWidth="1"/>
-    <col min="57" max="57" width="16.44140625" customWidth="1"/>
-    <col min="58" max="58" width="15.21875" customWidth="1"/>
-    <col min="59" max="59" width="50.109375" customWidth="1"/>
-    <col min="60" max="60" width="17.5546875" customWidth="1"/>
-    <col min="61" max="61" width="14.109375" customWidth="1"/>
-    <col min="62" max="62" width="11.88671875" customWidth="1"/>
-    <col min="63" max="63" width="8.6640625" customWidth="1"/>
-    <col min="64" max="64" width="14.109375" customWidth="1"/>
-    <col min="65" max="65" width="9.6640625" customWidth="1"/>
-    <col min="66" max="66" width="17.5546875" customWidth="1"/>
-    <col min="67" max="67" width="10.77734375" customWidth="1"/>
-    <col min="68" max="68" width="11.88671875" customWidth="1"/>
+    <col min="57" max="57" width="16.5" customWidth="1"/>
+    <col min="58" max="58" width="15.25" customWidth="1"/>
+    <col min="59" max="59" width="50.125" customWidth="1"/>
+    <col min="60" max="60" width="17.5" customWidth="1"/>
+    <col min="61" max="61" width="14.125" customWidth="1"/>
+    <col min="62" max="62" width="11.875" customWidth="1"/>
+    <col min="63" max="63" width="8.625" customWidth="1"/>
+    <col min="64" max="64" width="14.125" customWidth="1"/>
+    <col min="65" max="65" width="9.625" customWidth="1"/>
+    <col min="66" max="66" width="17.5" customWidth="1"/>
+    <col min="67" max="67" width="10.75" customWidth="1"/>
+    <col min="68" max="68" width="11.875" customWidth="1"/>
     <col min="69" max="69" width="13" customWidth="1"/>
-    <col min="70" max="70" width="11.88671875" customWidth="1"/>
-    <col min="71" max="71" width="15.21875" customWidth="1"/>
-    <col min="72" max="72" width="11.88671875" customWidth="1"/>
+    <col min="70" max="70" width="11.875" customWidth="1"/>
+    <col min="71" max="71" width="15.25" customWidth="1"/>
+    <col min="72" max="72" width="11.875" customWidth="1"/>
     <col min="73" max="73" width="13" customWidth="1"/>
-    <col min="74" max="74" width="17.5546875" customWidth="1"/>
-    <col min="75" max="75" width="20.88671875" customWidth="1"/>
-    <col min="76" max="76" width="16.44140625" customWidth="1"/>
+    <col min="74" max="74" width="17.5" customWidth="1"/>
+    <col min="75" max="75" width="20.875" customWidth="1"/>
+    <col min="76" max="76" width="16.5" customWidth="1"/>
     <col min="77" max="77" width="13" customWidth="1"/>
-    <col min="78" max="78" width="11.88671875" customWidth="1"/>
-    <col min="79" max="79" width="10.77734375" customWidth="1"/>
-    <col min="80" max="80" width="11.88671875" customWidth="1"/>
-    <col min="81" max="82" width="7.6640625" customWidth="1"/>
-    <col min="83" max="84" width="17.5546875" customWidth="1"/>
-    <col min="85" max="85" width="16.44140625" customWidth="1"/>
-    <col min="86" max="86" width="11.88671875" customWidth="1"/>
-    <col min="87" max="87" width="14.109375" customWidth="1"/>
-    <col min="88" max="88" width="16.44140625" customWidth="1"/>
-    <col min="89" max="89" width="10.77734375" customWidth="1"/>
-    <col min="90" max="90" width="11.88671875" customWidth="1"/>
-    <col min="91" max="91" width="19.77734375" customWidth="1"/>
-    <col min="92" max="92" width="16.44140625" customWidth="1"/>
-    <col min="93" max="93" width="23.109375" customWidth="1"/>
-    <col min="94" max="94" width="7.6640625" customWidth="1"/>
-    <col min="95" max="95" width="18.6640625" customWidth="1"/>
-    <col min="96" max="96" width="10.77734375" customWidth="1"/>
-    <col min="97" max="97" width="14.109375" customWidth="1"/>
+    <col min="78" max="78" width="11.875" customWidth="1"/>
+    <col min="79" max="79" width="10.75" customWidth="1"/>
+    <col min="80" max="80" width="11.875" customWidth="1"/>
+    <col min="81" max="82" width="7.625" customWidth="1"/>
+    <col min="83" max="84" width="17.5" customWidth="1"/>
+    <col min="85" max="85" width="16.5" customWidth="1"/>
+    <col min="86" max="86" width="11.875" customWidth="1"/>
+    <col min="87" max="87" width="14.125" customWidth="1"/>
+    <col min="88" max="88" width="16.5" customWidth="1"/>
+    <col min="89" max="89" width="10.75" customWidth="1"/>
+    <col min="90" max="90" width="11.875" customWidth="1"/>
+    <col min="91" max="91" width="19.75" customWidth="1"/>
+    <col min="92" max="92" width="16.5" customWidth="1"/>
+    <col min="93" max="93" width="23.125" customWidth="1"/>
+    <col min="94" max="94" width="7.625" customWidth="1"/>
+    <col min="95" max="95" width="18.625" customWidth="1"/>
+    <col min="96" max="96" width="10.75" customWidth="1"/>
+    <col min="97" max="97" width="14.125" customWidth="1"/>
     <col min="98" max="98" width="13" customWidth="1"/>
-    <col min="99" max="99" width="16.44140625" customWidth="1"/>
+    <col min="99" max="99" width="16.5" customWidth="1"/>
     <col min="100" max="101" width="13" customWidth="1"/>
-    <col min="102" max="102" width="9.6640625" customWidth="1"/>
-    <col min="103" max="103" width="16.44140625" customWidth="1"/>
-    <col min="104" max="104" width="14.109375" customWidth="1"/>
-    <col min="105" max="105" width="11.88671875" customWidth="1"/>
-    <col min="106" max="107" width="15.21875" customWidth="1"/>
-    <col min="108" max="108" width="9.6640625" customWidth="1"/>
+    <col min="102" max="102" width="9.625" customWidth="1"/>
+    <col min="103" max="103" width="16.5" customWidth="1"/>
+    <col min="104" max="104" width="14.125" customWidth="1"/>
+    <col min="105" max="105" width="11.875" customWidth="1"/>
+    <col min="106" max="107" width="15.25" customWidth="1"/>
+    <col min="108" max="108" width="9.625" customWidth="1"/>
     <col min="109" max="109" width="13" customWidth="1"/>
-    <col min="110" max="110" width="9.6640625" customWidth="1"/>
-    <col min="111" max="111" width="15.21875" customWidth="1"/>
-    <col min="112" max="112" width="17.5546875" customWidth="1"/>
-    <col min="113" max="113" width="14.109375" customWidth="1"/>
-    <col min="114" max="114" width="19.77734375" customWidth="1"/>
-    <col min="115" max="115" width="16.44140625" customWidth="1"/>
-    <col min="116" max="116" width="20.88671875" customWidth="1"/>
-    <col min="117" max="117" width="24.21875" customWidth="1"/>
-    <col min="118" max="118" width="16.44140625" customWidth="1"/>
-    <col min="119" max="119" width="17.5546875" customWidth="1"/>
+    <col min="110" max="110" width="9.625" customWidth="1"/>
+    <col min="111" max="111" width="15.25" customWidth="1"/>
+    <col min="112" max="112" width="17.5" customWidth="1"/>
+    <col min="113" max="113" width="14.125" customWidth="1"/>
+    <col min="114" max="114" width="19.75" customWidth="1"/>
+    <col min="115" max="115" width="16.5" customWidth="1"/>
+    <col min="116" max="116" width="20.875" customWidth="1"/>
+    <col min="117" max="117" width="24.25" customWidth="1"/>
+    <col min="118" max="118" width="16.5" customWidth="1"/>
+    <col min="119" max="119" width="17.5" customWidth="1"/>
     <col min="120" max="120" width="22" customWidth="1"/>
-    <col min="121" max="122" width="20.88671875" customWidth="1"/>
-    <col min="123" max="123" width="19.77734375" customWidth="1"/>
-    <col min="124" max="124" width="17.5546875" customWidth="1"/>
-    <col min="125" max="125" width="20.88671875" customWidth="1"/>
-    <col min="126" max="126" width="18.6640625" customWidth="1"/>
-    <col min="127" max="127" width="8.6640625" customWidth="1"/>
-    <col min="128" max="128" width="15.21875" customWidth="1"/>
+    <col min="121" max="122" width="20.875" customWidth="1"/>
+    <col min="123" max="123" width="19.75" customWidth="1"/>
+    <col min="124" max="124" width="17.5" customWidth="1"/>
+    <col min="125" max="125" width="20.875" customWidth="1"/>
+    <col min="126" max="126" width="18.625" customWidth="1"/>
+    <col min="127" max="127" width="8.625" customWidth="1"/>
+    <col min="128" max="128" width="15.25" customWidth="1"/>
     <col min="129" max="129" width="13" customWidth="1"/>
-    <col min="130" max="130" width="14.109375" customWidth="1"/>
-    <col min="131" max="131" width="10.77734375" customWidth="1"/>
-    <col min="132" max="132" width="11.88671875" customWidth="1"/>
-    <col min="133" max="133" width="15.21875" customWidth="1"/>
-    <col min="134" max="134" width="16.44140625" customWidth="1"/>
-    <col min="135" max="135" width="14.109375" customWidth="1"/>
-    <col min="136" max="136" width="17.5546875" customWidth="1"/>
-    <col min="137" max="137" width="14.109375" customWidth="1"/>
+    <col min="130" max="130" width="14.125" customWidth="1"/>
+    <col min="131" max="131" width="10.75" customWidth="1"/>
+    <col min="132" max="132" width="11.875" customWidth="1"/>
+    <col min="133" max="133" width="15.25" customWidth="1"/>
+    <col min="134" max="134" width="16.5" customWidth="1"/>
+    <col min="135" max="135" width="14.125" customWidth="1"/>
+    <col min="136" max="136" width="17.5" customWidth="1"/>
+    <col min="137" max="137" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
@@ -2720,12 +2714,12 @@
         <v>229</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>250</v>
@@ -2734,16 +2728,16 @@
         <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>87</v>
@@ -2788,7 +2782,7 @@
         <v>92</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>94</v>
@@ -2797,7 +2791,7 @@
         <v>94</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>95</v>
@@ -2932,7 +2926,7 @@
         <v>241</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>94</v>
@@ -2950,13 +2944,13 @@
         <v>91</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>242</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>99</v>
@@ -3052,9 +3046,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>230</v>
@@ -3063,16 +3057,16 @@
         <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>87</v>
@@ -3117,7 +3111,7 @@
         <v>92</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>94</v>
@@ -3126,7 +3120,7 @@
         <v>94</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>91</v>
@@ -3258,7 +3252,7 @@
         <v>241</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>94</v>
@@ -3276,13 +3270,13 @@
         <v>91</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>242</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>99</v>
@@ -3378,9 +3372,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>250</v>
@@ -3389,16 +3383,16 @@
         <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>100</v>
@@ -3443,7 +3437,7 @@
         <v>92</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>94</v>
@@ -3452,7 +3446,7 @@
         <v>94</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>102</v>
@@ -3587,7 +3581,7 @@
         <v>241</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>94</v>
@@ -3605,13 +3599,13 @@
         <v>91</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>242</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>99</v>
@@ -3707,9 +3701,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>230</v>
@@ -3718,16 +3712,16 @@
         <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>100</v>
@@ -3772,7 +3766,7 @@
         <v>92</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>94</v>
@@ -3781,7 +3775,7 @@
         <v>94</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>91</v>
@@ -3913,7 +3907,7 @@
         <v>241</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>94</v>
@@ -3931,13 +3925,13 @@
         <v>91</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>242</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>99</v>
@@ -4033,11 +4027,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4046,37 +4040,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
     <col min="5" max="6" width="13" customWidth="1"/>
-    <col min="7" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" customWidth="1"/>
-    <col min="12" max="12" width="20.88671875" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="7" max="9" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="11" max="11" width="15.25" customWidth="1"/>
+    <col min="12" max="12" width="20.875" customWidth="1"/>
+    <col min="13" max="13" width="18.625" customWidth="1"/>
     <col min="14" max="14" width="22" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" customWidth="1"/>
-    <col min="16" max="16" width="19.77734375" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" customWidth="1"/>
-    <col min="18" max="18" width="23.109375" customWidth="1"/>
-    <col min="19" max="19" width="15.21875" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" customWidth="1"/>
-    <col min="21" max="22" width="16.44140625" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" customWidth="1"/>
-    <col min="24" max="24" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.625" customWidth="1"/>
+    <col min="16" max="16" width="19.75" customWidth="1"/>
+    <col min="17" max="17" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="23.125" customWidth="1"/>
+    <col min="19" max="19" width="15.25" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="21" max="22" width="16.5" customWidth="1"/>
+    <col min="23" max="23" width="7.625" customWidth="1"/>
+    <col min="24" max="24" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
@@ -4150,9 +4144,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>86</v>
@@ -4170,7 +4164,7 @@
         <v>91</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>92</v>
+        <v>275</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>91</v>
@@ -4188,16 +4182,16 @@
         <v>94</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>92</v>
@@ -4206,7 +4200,7 @@
         <v>92</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>99</v>
@@ -4215,75 +4209,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>